--- a/ClosedXML_Tests/Resource/Examples/ConditionalFormatting/CFDataBarNegative.xlsx
+++ b/ClosedXML_Tests/Resource/Examples/ConditionalFormatting/CFDataBarNegative.xlsx
@@ -59,12 +59,12 @@
     </x:border>
   </x:borders>
   <x:cellStyleXfs count="1">
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
   </x:cellStyleXfs>
   <x:cellXfs count="1">
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
@@ -411,7 +411,7 @@
       </x:dataBar>
       <x:extLst>
         <x:ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{15cbf047-5244-4d28-b871-853c11c8d4cf}</x14:id>
+          <x14:id>{6f0466fb-d246-4725-a845-ee12553e31bf}</x14:id>
         </x:ext>
       </x:extLst>
     </x:cfRule>
@@ -425,7 +425,7 @@
       </x:dataBar>
       <x:extLst>
         <x:ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{59989deb-bc35-46fc-a6c4-8024da2ba1d0}</x14:id>
+          <x14:id>{f714d1b9-95b2-42ec-8470-8f5b28a313b9}</x14:id>
         </x:ext>
       </x:extLst>
     </x:cfRule>
@@ -439,7 +439,7 @@
     <x:ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{15cbf047-5244-4d28-b871-853c11c8d4cf}">
+          <x14:cfRule type="dataBar" id="{6f0466fb-d246-4725-a845-ee12553e31bf}">
             <x14:dataBar minLength="0" maxLength="100" showValue="1" gradient="0" axisPosition="middle">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -454,7 +454,7 @@
           <xm:sqref>A1:A4</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{59989deb-bc35-46fc-a6c4-8024da2ba1d0}">
+          <x14:cfRule type="dataBar" id="{f714d1b9-95b2-42ec-8470-8f5b28a313b9}">
             <x14:dataBar minLength="0" maxLength="100" showValue="0" gradient="0" axisPosition="middle">
               <x14:cfvo type="num">
                 <xm:f>-100</xm:f>
